--- a/data/misspell.xlsx
+++ b/data/misspell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijpark\PycharmProjects\mkdg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A774C78-10C8-470F-AA0A-B3A205418856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B59383-B274-4C8E-9F55-4CEDEC3BBD73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="345" windowWidth="20985" windowHeight="13545" tabRatio="751" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10920" yWindow="1485" windowWidth="14595" windowHeight="13545" tabRatio="1000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adjective" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="446">
   <si>
     <t>origin</t>
   </si>
@@ -588,400 +588,921 @@
     <t>이</t>
   </si>
   <si>
+    <t>이론</t>
+  </si>
+  <si>
+    <t>이른</t>
+  </si>
+  <si>
+    <t>요런</t>
+  </si>
+  <si>
+    <t>저</t>
+  </si>
+  <si>
+    <t>젓</t>
+  </si>
+  <si>
+    <t>저어</t>
+  </si>
+  <si>
+    <t>한</t>
+  </si>
+  <si>
+    <t>함</t>
+  </si>
+  <si>
+    <t>고</t>
+  </si>
+  <si>
+    <t>구</t>
+  </si>
+  <si>
+    <t>게</t>
+  </si>
+  <si>
+    <t>게요</t>
+  </si>
+  <si>
+    <t>니다</t>
+  </si>
+  <si>
+    <t>습다</t>
+  </si>
+  <si>
+    <t>슴다</t>
+  </si>
+  <si>
+    <t>슷니다</t>
+  </si>
+  <si>
+    <t>숩니다</t>
+  </si>
+  <si>
+    <t>스비다</t>
+  </si>
+  <si>
+    <t>습닛다</t>
+  </si>
+  <si>
+    <t>니당</t>
+  </si>
+  <si>
+    <t>닌다</t>
+  </si>
+  <si>
+    <t>니단</t>
+  </si>
+  <si>
+    <t>니담</t>
+  </si>
+  <si>
+    <t>님당</t>
+  </si>
+  <si>
+    <t>닛당</t>
+  </si>
+  <si>
+    <t>님다</t>
+  </si>
+  <si>
+    <t>닛다</t>
+  </si>
+  <si>
+    <t>니닷</t>
+  </si>
+  <si>
+    <t>습니다</t>
+  </si>
+  <si>
+    <t>면</t>
+  </si>
+  <si>
+    <t>명</t>
+  </si>
+  <si>
+    <t>아요</t>
+  </si>
+  <si>
+    <t>야요</t>
+  </si>
+  <si>
+    <t>아오</t>
+  </si>
+  <si>
+    <t>야오</t>
+  </si>
+  <si>
+    <t>아욘</t>
+  </si>
+  <si>
+    <t>야욘</t>
+  </si>
+  <si>
+    <t>아용</t>
+  </si>
+  <si>
+    <t>어</t>
+  </si>
+  <si>
+    <t>엇</t>
+  </si>
+  <si>
+    <t>어요</t>
+  </si>
+  <si>
+    <t>엇요</t>
+  </si>
+  <si>
+    <t>어용</t>
+  </si>
+  <si>
+    <t>어욘</t>
+  </si>
+  <si>
+    <t>에요</t>
+  </si>
+  <si>
+    <t>예요</t>
+  </si>
+  <si>
+    <t>와</t>
+  </si>
+  <si>
+    <t>야랑</t>
+  </si>
+  <si>
+    <t>이랑</t>
+  </si>
+  <si>
+    <t>이나</t>
+  </si>
+  <si>
+    <t>나</t>
+  </si>
+  <si>
+    <t>과</t>
+  </si>
+  <si>
+    <t>활인</t>
+  </si>
+  <si>
+    <t>할인</t>
+  </si>
+  <si>
+    <t>캬드</t>
+  </si>
+  <si>
+    <t>커드</t>
+  </si>
+  <si>
+    <t>카드</t>
+  </si>
+  <si>
+    <t>츄가</t>
+  </si>
+  <si>
+    <t>츠가</t>
+  </si>
+  <si>
+    <t>추가</t>
+  </si>
+  <si>
+    <t>주뭄</t>
+  </si>
+  <si>
+    <t>주뭉</t>
+  </si>
+  <si>
+    <t>주문</t>
+  </si>
+  <si>
+    <t>정두</t>
+  </si>
+  <si>
+    <t>정도</t>
+  </si>
+  <si>
+    <t>예악</t>
+  </si>
+  <si>
+    <t>에악</t>
+  </si>
+  <si>
+    <t>에약</t>
+  </si>
+  <si>
+    <t>예약</t>
+  </si>
+  <si>
+    <t>얼마</t>
+  </si>
+  <si>
+    <t>셋뜨</t>
+  </si>
+  <si>
+    <t>셋트</t>
+  </si>
+  <si>
+    <t>세뜨</t>
+  </si>
+  <si>
+    <t>세트</t>
+  </si>
+  <si>
+    <t>배다</t>
+  </si>
+  <si>
+    <t>베달</t>
+  </si>
+  <si>
+    <t>배달</t>
+  </si>
+  <si>
+    <t>마뉴</t>
+  </si>
+  <si>
+    <t>메뉴</t>
+  </si>
+  <si>
+    <t>결재</t>
+  </si>
+  <si>
+    <t>결제</t>
+  </si>
+  <si>
+    <t>가녕</t>
+  </si>
+  <si>
+    <t>카녕</t>
+  </si>
+  <si>
+    <t>카넝</t>
+  </si>
+  <si>
+    <t>카능</t>
+  </si>
+  <si>
+    <t>가능</t>
+  </si>
+  <si>
+    <t>가격</t>
+  </si>
+  <si>
+    <t>으씨</t>
+  </si>
+  <si>
+    <t>으시</t>
+  </si>
+  <si>
+    <t>잇엇</t>
+  </si>
+  <si>
+    <t>있었</t>
+  </si>
+  <si>
+    <t>있엇</t>
+  </si>
+  <si>
+    <t>었</t>
+  </si>
+  <si>
+    <t>앗</t>
+  </si>
+  <si>
+    <t>았</t>
+  </si>
+  <si>
+    <t>시</t>
+  </si>
+  <si>
+    <t>겟</t>
+  </si>
+  <si>
+    <t>겠</t>
+  </si>
+  <si>
+    <t>탈</t>
+  </si>
+  <si>
+    <t>초</t>
+  </si>
+  <si>
+    <t>쩨</t>
+  </si>
+  <si>
+    <t>제</t>
+  </si>
+  <si>
+    <t>소</t>
+  </si>
+  <si>
+    <t>생</t>
+  </si>
+  <si>
+    <t>삐</t>
+  </si>
+  <si>
+    <t>비</t>
+  </si>
+  <si>
+    <t>불</t>
+  </si>
+  <si>
+    <t>반</t>
+  </si>
+  <si>
+    <t>무</t>
+  </si>
+  <si>
+    <t>대</t>
+  </si>
+  <si>
+    <t>코</t>
+  </si>
+  <si>
+    <t>히</t>
+  </si>
+  <si>
+    <t>차</t>
+  </si>
+  <si>
+    <t>찾</t>
+  </si>
+  <si>
+    <t>잎</t>
+  </si>
+  <si>
+    <t>입</t>
+  </si>
+  <si>
+    <t>잇</t>
+  </si>
+  <si>
+    <t>있</t>
+  </si>
+  <si>
+    <t>씬</t>
+  </si>
+  <si>
+    <t>신</t>
+  </si>
+  <si>
+    <t>보이</t>
+  </si>
+  <si>
+    <t>먹</t>
+  </si>
+  <si>
+    <t>드러가</t>
+  </si>
+  <si>
+    <t>들어가</t>
+  </si>
+  <si>
+    <t>들</t>
+  </si>
+  <si>
+    <t>드리</t>
+  </si>
+  <si>
+    <t>돼</t>
+  </si>
+  <si>
+    <t>되</t>
+  </si>
+  <si>
+    <t>나오</t>
+  </si>
+  <si>
+    <t>나가</t>
+  </si>
+  <si>
+    <t>걸리</t>
+  </si>
+  <si>
+    <t>비싸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>똑같</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예쁘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에쁘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애쁘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두껍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둣겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부드럽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가깝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젠부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪼금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>및</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하긴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허긴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어느</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>이런</t>
-  </si>
-  <si>
-    <t>이론</t>
-  </si>
-  <si>
-    <t>이른</t>
-  </si>
-  <si>
-    <t>요런</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저런</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>려고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>려면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는데요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뀰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>저</t>
-  </si>
-  <si>
-    <t>젓</t>
-  </si>
-  <si>
-    <t>저어</t>
-  </si>
-  <si>
-    <t>한</t>
-  </si>
-  <si>
-    <t>함</t>
-  </si>
-  <si>
-    <t>고</t>
-  </si>
-  <si>
-    <t>구</t>
-  </si>
-  <si>
-    <t>게</t>
-  </si>
-  <si>
-    <t>게요</t>
-  </si>
-  <si>
-    <t>니다</t>
-  </si>
-  <si>
-    <t>습다</t>
-  </si>
-  <si>
-    <t>슴다</t>
-  </si>
-  <si>
-    <t>슷니다</t>
-  </si>
-  <si>
-    <t>숩니다</t>
-  </si>
-  <si>
-    <t>스비다</t>
-  </si>
-  <si>
-    <t>습닛다</t>
-  </si>
-  <si>
-    <t>니당</t>
-  </si>
-  <si>
-    <t>닌다</t>
-  </si>
-  <si>
-    <t>니단</t>
-  </si>
-  <si>
-    <t>니담</t>
-  </si>
-  <si>
-    <t>님당</t>
-  </si>
-  <si>
-    <t>닛당</t>
-  </si>
-  <si>
-    <t>님다</t>
-  </si>
-  <si>
-    <t>닛다</t>
-  </si>
-  <si>
-    <t>니닷</t>
-  </si>
-  <si>
-    <t>습니다</t>
-  </si>
-  <si>
-    <t>면</t>
-  </si>
-  <si>
-    <t>명</t>
-  </si>
-  <si>
-    <t>아요</t>
-  </si>
-  <si>
-    <t>야요</t>
-  </si>
-  <si>
-    <t>아오</t>
-  </si>
-  <si>
-    <t>야오</t>
-  </si>
-  <si>
-    <t>아욘</t>
-  </si>
-  <si>
-    <t>야욘</t>
-  </si>
-  <si>
-    <t>아용</t>
-  </si>
-  <si>
-    <t>어</t>
-  </si>
-  <si>
-    <t>엇</t>
-  </si>
-  <si>
-    <t>어요</t>
-  </si>
-  <si>
-    <t>엇요</t>
-  </si>
-  <si>
-    <t>어용</t>
-  </si>
-  <si>
-    <t>어욘</t>
-  </si>
-  <si>
-    <t>에요</t>
-  </si>
-  <si>
-    <t>예요</t>
-  </si>
-  <si>
-    <t>와</t>
-  </si>
-  <si>
-    <t>야랑</t>
-  </si>
-  <si>
-    <t>이랑</t>
-  </si>
-  <si>
-    <t>이나</t>
-  </si>
-  <si>
-    <t>나</t>
-  </si>
-  <si>
-    <t>과</t>
-  </si>
-  <si>
-    <t>활인</t>
-  </si>
-  <si>
-    <t>할인</t>
-  </si>
-  <si>
-    <t>캬드</t>
-  </si>
-  <si>
-    <t>커드</t>
-  </si>
-  <si>
-    <t>카드</t>
-  </si>
-  <si>
-    <t>츄가</t>
-  </si>
-  <si>
-    <t>츠가</t>
-  </si>
-  <si>
-    <t>추가</t>
-  </si>
-  <si>
-    <t>주뭄</t>
-  </si>
-  <si>
-    <t>주뭉</t>
-  </si>
-  <si>
-    <t>주문</t>
-  </si>
-  <si>
-    <t>정두</t>
-  </si>
-  <si>
-    <t>정도</t>
-  </si>
-  <si>
-    <t>예악</t>
-  </si>
-  <si>
-    <t>에악</t>
-  </si>
-  <si>
-    <t>에약</t>
-  </si>
-  <si>
-    <t>예약</t>
-  </si>
-  <si>
-    <t>얼마</t>
-  </si>
-  <si>
-    <t>셋뜨</t>
-  </si>
-  <si>
-    <t>셋트</t>
-  </si>
-  <si>
-    <t>세뜨</t>
-  </si>
-  <si>
-    <t>세트</t>
-  </si>
-  <si>
-    <t>배다</t>
-  </si>
-  <si>
-    <t>베달</t>
-  </si>
-  <si>
-    <t>배달</t>
-  </si>
-  <si>
-    <t>마뉴</t>
-  </si>
-  <si>
-    <t>메뉴</t>
-  </si>
-  <si>
-    <t>결재</t>
-  </si>
-  <si>
-    <t>결제</t>
-  </si>
-  <si>
-    <t>가녕</t>
-  </si>
-  <si>
-    <t>카녕</t>
-  </si>
-  <si>
-    <t>카넝</t>
-  </si>
-  <si>
-    <t>카능</t>
-  </si>
-  <si>
-    <t>가능</t>
-  </si>
-  <si>
-    <t>가격</t>
-  </si>
-  <si>
-    <t>으씨</t>
-  </si>
-  <si>
-    <t>으시</t>
-  </si>
-  <si>
-    <t>잇엇</t>
-  </si>
-  <si>
-    <t>있었</t>
-  </si>
-  <si>
-    <t>있엇</t>
-  </si>
-  <si>
-    <t>었</t>
-  </si>
-  <si>
-    <t>앗</t>
-  </si>
-  <si>
-    <t>았</t>
-  </si>
-  <si>
-    <t>시</t>
-  </si>
-  <si>
-    <t>겟</t>
-  </si>
-  <si>
-    <t>겠</t>
-  </si>
-  <si>
-    <t>탈</t>
-  </si>
-  <si>
-    <t>초</t>
-  </si>
-  <si>
-    <t>쩨</t>
-  </si>
-  <si>
-    <t>제</t>
-  </si>
-  <si>
-    <t>소</t>
-  </si>
-  <si>
-    <t>생</t>
-  </si>
-  <si>
-    <t>삐</t>
-  </si>
-  <si>
-    <t>비</t>
-  </si>
-  <si>
-    <t>불</t>
-  </si>
-  <si>
-    <t>반</t>
-  </si>
-  <si>
-    <t>무</t>
-  </si>
-  <si>
-    <t>대</t>
-  </si>
-  <si>
-    <t>코</t>
-  </si>
-  <si>
-    <t>히</t>
-  </si>
-  <si>
-    <t>차</t>
-  </si>
-  <si>
-    <t>찾</t>
-  </si>
-  <si>
-    <t>잎</t>
-  </si>
-  <si>
-    <t>입</t>
-  </si>
-  <si>
-    <t>잇</t>
-  </si>
-  <si>
-    <t>있</t>
-  </si>
-  <si>
-    <t>씬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신</t>
-  </si>
-  <si>
-    <t>보이</t>
-  </si>
-  <si>
-    <t>먹</t>
-  </si>
-  <si>
-    <t>드러가</t>
-  </si>
-  <si>
-    <t>들어가</t>
-  </si>
-  <si>
-    <t>들</t>
-  </si>
-  <si>
-    <t>드리</t>
-  </si>
-  <si>
-    <t>돼</t>
-  </si>
-  <si>
-    <t>되</t>
-  </si>
-  <si>
-    <t>나오</t>
-  </si>
-  <si>
-    <t>나가</t>
-  </si>
-  <si>
-    <t>걸리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끓이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끌이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1309,10 +1830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1354,17 +1875,8 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+        <v>335</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1373,17 +1885,8 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+        <v>338</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1392,13 +1895,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1411,10 +1914,14 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1426,10 +1933,14 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1441,17 +1952,11 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1462,11 +1967,9 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1479,22 +1982,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>331</v>
+      </c>
+      <c r="B9" t="s">
+        <v>332</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1504,15 +1995,17 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1523,14 +2016,12 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1542,15 +2033,14 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+        <v>327</v>
+      </c>
+      <c r="B12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" t="s">
+        <v>329</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1559,17 +2049,8 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+        <v>334</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1578,17 +2059,8 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+        <v>320</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1597,13 +2069,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1616,15 +2088,23 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1633,15 +2113,8 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+        <v>336</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1650,15 +2123,8 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+        <v>317</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1667,15 +2133,8 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+        <v>333</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1684,19 +2143,8 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+        <v>315</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1705,12 +2153,14 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1722,10 +2172,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1739,31 +2189,210 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+        <v>330</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B31" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" t="s">
+        <v>324</v>
+      </c>
+      <c r="D31" t="s">
+        <v>325</v>
+      </c>
+      <c r="E31" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B35" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F39">
+    <sortCondition ref="A2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA6DBBD-9BD7-4914-BE9F-D1B289285B1B}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1806,9 +2435,8 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>417</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1822,7 +2450,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>314</v>
+        <v>428</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1838,7 +2466,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1854,10 +2482,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>311</v>
+        <v>442</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1872,9 +2497,11 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>441</v>
+      </c>
+      <c r="B6" t="s">
+        <v>443</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1888,7 +2515,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1904,11 +2531,9 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>307</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1922,9 +2547,11 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>430</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>445</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1938,9 +2565,8 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>437</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1954,10 +2580,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1972,11 +2598,9 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>301</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1990,11 +2614,9 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>299</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2008,10 +2630,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2026,7 +2648,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>296</v>
+        <v>426</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2041,8 +2663,9 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2055,7 +2678,9 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2069,7 +2694,479 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B35">
+    <sortCondition ref="A35"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FD0948-D3D8-4BBE-879D-CAE0780A4239}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2083,445 +3180,127 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
+    <sortCondition ref="A30"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FD0948-D3D8-4BBE-879D-CAE0780A4239}">
-  <dimension ref="A1:L18"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996A81F9-74BF-4B05-A0D8-B277F6A7E908}">
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996A81F9-74BF-4B05-A0D8-B277F6A7E908}">
-  <dimension ref="A1:M10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2810,7 +3589,9 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2824,6 +3605,14 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2832,10 +3621,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4E66B4-BA53-4480-BE87-5A3F576CEDED}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E22:E23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2894,19 +3683,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>169</v>
+        <v>363</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2917,12 +3694,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+        <v>373</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2932,12 +3705,20 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2947,11 +3728,9 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>172</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2964,12 +3743,8 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>362</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2979,20 +3754,12 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3002,19 +3769,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>182</v>
+        <v>375</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3025,9 +3780,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3040,18 +3797,8 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>371</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -3061,16 +3808,8 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+        <v>367</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3080,14 +3819,8 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+        <v>359</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3095,7 +3828,151 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
+    <sortCondition ref="A30"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3103,10 +3980,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E1EAAA-5BE9-41B7-B725-AED572335A1D}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3156,11 +4033,9 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3204,9 +4079,11 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3227,70 +4104,14 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>213</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>215</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3311,29 +4132,1288 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S26">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18003A83-7B44-48E1-B4B2-35C72013711A}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F81392-19F2-4795-AC98-BDEA868F270B}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F36">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D29EEE-D4C5-40DE-86DA-2E7E477D6A17}">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>222</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -3347,12 +5427,7 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>224</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3372,18 +5447,9 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3401,12 +5467,7 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3426,7 +5487,6 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3447,7 +5507,6 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3468,7 +5527,6 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3489,7 +5547,6 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3510,7 +5567,6 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3531,7 +5587,6 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3551,8 +5606,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3572,8 +5626,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -3593,1047 +5646,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18003A83-7B44-48E1-B4B2-35C72013711A}">
-  <dimension ref="A1:K9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F81392-19F2-4795-AC98-BDEA868F270B}">
-  <dimension ref="A1:L23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D29EEE-D4C5-40DE-86DA-2E7E477D6A17}">
-  <dimension ref="A1:S20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4653,8 +5666,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -4682,10 +5694,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E957D318-BA07-4A86-81AF-A700FE17CEB1}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4728,10 +5740,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>295</v>
+        <v>417</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4746,9 +5755,11 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4762,9 +5773,8 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>415</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -4778,7 +5788,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -4794,7 +5804,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -4810,10 +5820,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4828,9 +5835,8 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>421</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4844,7 +5850,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4860,10 +5866,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4878,9 +5884,8 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>287</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -4894,9 +5899,8 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>286</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4909,8 +5913,9 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -4923,8 +5928,9 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -4937,8 +5943,9 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -4951,8 +5958,12 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -4964,7 +5975,44 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B29">
+    <sortCondition ref="A2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/misspell.xlsx
+++ b/data/misspell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijpark\PycharmProjects\mkdg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B59383-B274-4C8E-9F55-4CEDEC3BBD73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468CF79E-910A-4F5E-9CD5-2220FBC50F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="1485" windowWidth="14595" windowHeight="13545" tabRatio="1000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12915" yWindow="960" windowWidth="17850" windowHeight="13545" tabRatio="1000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adjective" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="534">
   <si>
     <t>origin</t>
   </si>
@@ -1225,10 +1225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1502,6 +1498,362 @@
   </si>
   <si>
     <t>넛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그로나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜냐하면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜냐면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜냐허면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외냐하면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>춍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>져런</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즈른</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즈런</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>므순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>므슨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던뎅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던뎁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>려구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능데요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는뎀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는데욤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는데욥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는데욘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는데연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는데엽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는데염</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는대요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는뎃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세탁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영양제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈섹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맡기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기다리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1830,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1952,13 +2304,8 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>446</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1967,13 +2314,8 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+        <v>446</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1982,11 +2324,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B9" t="s">
-        <v>332</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1995,19 +2339,8 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>452</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2016,11 +2349,9 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2033,13 +2364,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B12" t="s">
-        <v>328</v>
-      </c>
-      <c r="C12" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2049,8 +2377,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>334</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2059,8 +2398,15 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>320</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2069,13 +2415,630 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15" t="s">
+        <v>329</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B39" t="s">
+        <v>323</v>
+      </c>
+      <c r="C39" t="s">
+        <v>324</v>
+      </c>
+      <c r="D39" t="s">
+        <v>325</v>
+      </c>
+      <c r="E39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F49">
+    <sortCondition ref="A49"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA6DBBD-9BD7-4914-BE9F-D1B289285B1B}">
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>529</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2085,82 +3048,88 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>336</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>317</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>333</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>315</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2169,13 +3138,11 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>435</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2186,200 +3153,150 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>330</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>307</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>306</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>311</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>310</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B31" t="s">
-        <v>323</v>
-      </c>
-      <c r="C31" t="s">
-        <v>324</v>
-      </c>
-      <c r="D31" t="s">
-        <v>325</v>
-      </c>
-      <c r="E31" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>429</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>444</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>318</v>
+        <v>440</v>
       </c>
       <c r="B35" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>441</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>67</v>
+        <v>427</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C41" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F39">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C41">
+    <sortCondition descending="1" ref="A41"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2387,12 +3304,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA6DBBD-9BD7-4914-BE9F-D1B289285B1B}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FD0948-D3D8-4BBE-879D-CAE0780A4239}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2435,9 +3352,14 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2450,9 +3372,11 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2466,7 +3390,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2482,11 +3406,8 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+        <v>457</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2497,13 +3418,8 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B6" t="s">
-        <v>443</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+        <v>343</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2515,10 +3431,14 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2531,12 +3451,8 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+        <v>455</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2547,10 +3463,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2565,7 +3481,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>437</v>
+        <v>78</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2580,10 +3499,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>310</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2598,11 +3517,8 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+        <v>345</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2614,7 +3530,555 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>308</v>
+        <v>351</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E34">
+    <sortCondition ref="A34"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996A81F9-74BF-4B05-A0D8-B277F6A7E908}">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2627,257 +4091,53 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>307</v>
+        <v>467</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="C14" t="s">
+        <v>470</v>
+      </c>
+      <c r="D14" t="s">
+        <v>471</v>
+      </c>
+      <c r="E14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B34" s="1"/>
+        <v>356</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>357</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B35">
-    <sortCondition ref="A35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M15">
+    <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FD0948-D3D8-4BBE-879D-CAE0780A4239}">
-  <dimension ref="A1:L29"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4E66B4-BA53-4480-BE87-5A3F576CEDED}">
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2911,34 +4171,24 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+        <v>473</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2949,82 +4199,68 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+        <v>363</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>373</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+        <v>484</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3034,563 +4270,21 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+        <v>362</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
-    <sortCondition ref="A30"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996A81F9-74BF-4B05-A0D8-B277F6A7E908}">
-  <dimension ref="A1:M11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>355</v>
+        <v>170</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3602,202 +4296,10 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4E66B4-BA53-4480-BE87-5A3F576CEDED}">
-  <dimension ref="A1:K30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3808,8 +4310,14 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>367</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3819,7 +4327,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -3830,148 +4338,205 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+        <v>367</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>372</v>
+        <v>359</v>
+      </c>
+      <c r="B15" t="s">
+        <v>485</v>
+      </c>
+      <c r="C15" t="s">
+        <v>486</v>
+      </c>
+      <c r="D15" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>374</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>358</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>177</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>365</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+        <v>365</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>366</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+        <v>368</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>370</v>
+        <v>178</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>364</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>361</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>360</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B32" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B34" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
-    <sortCondition ref="A30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E37">
+    <sortCondition ref="A37"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3980,10 +4545,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E1EAAA-5BE9-41B7-B725-AED572335A1D}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4035,8 +4600,12 @@
       <c r="A2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>489</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -4104,12 +4673,1394 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>378</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B31" t="s">
+        <v>512</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S32">
+    <sortCondition ref="A32"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18003A83-7B44-48E1-B4B2-35C72013711A}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F81392-19F2-4795-AC98-BDEA868F270B}">
+  <dimension ref="A1:L46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B33" t="s">
+        <v>525</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B38" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F36">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D29EEE-D4C5-40DE-86DA-2E7E477D6A17}">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>526</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -4132,1281 +6083,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S26">
-    <sortCondition ref="A2"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18003A83-7B44-48E1-B4B2-35C72013711A}">
-  <dimension ref="A1:K9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F81392-19F2-4795-AC98-BDEA868F270B}">
-  <dimension ref="A1:L35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F36">
-    <sortCondition ref="A2"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D29EEE-D4C5-40DE-86DA-2E7E477D6A17}">
-  <dimension ref="A1:S20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>424</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -5427,11 +6107,24 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -5687,6 +6380,9 @@
       <c r="S20" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F8">
+    <sortCondition ref="A2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5697,7 +6393,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5740,7 +6436,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5773,7 +6469,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5835,7 +6531,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5914,7 +6610,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -5929,7 +6625,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -5944,7 +6640,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -5983,7 +6679,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B18" s="1"/>
     </row>
@@ -5995,7 +6691,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B20" s="1"/>
     </row>

--- a/data/misspell.xlsx
+++ b/data/misspell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijpark\PycharmProjects\mkdg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468CF79E-910A-4F5E-9CD5-2220FBC50F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5A61A1-4533-4192-BBE3-E3E1B40BEAA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12915" yWindow="960" windowWidth="17850" windowHeight="13545" tabRatio="1000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12915" yWindow="960" windowWidth="17850" windowHeight="13545" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adjective" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="546">
   <si>
     <t>origin</t>
   </si>
@@ -96,1712 +96,1709 @@
     <t>그럿</t>
   </si>
   <si>
+    <t>낮</t>
+  </si>
+  <si>
+    <t>늦</t>
+  </si>
+  <si>
+    <t>늣</t>
+  </si>
+  <si>
+    <t>늧</t>
+  </si>
+  <si>
+    <t>늗</t>
+  </si>
+  <si>
+    <t>다르</t>
+  </si>
+  <si>
+    <t>다른</t>
+  </si>
+  <si>
+    <t>맛있</t>
+  </si>
+  <si>
+    <t>맛잇</t>
+  </si>
+  <si>
+    <t>맜있</t>
+  </si>
+  <si>
+    <t>맜잇</t>
+  </si>
+  <si>
+    <t>마싯</t>
+  </si>
+  <si>
+    <t>마싰</t>
+  </si>
+  <si>
+    <t>많</t>
+  </si>
+  <si>
+    <t>만</t>
+  </si>
+  <si>
+    <t>맣</t>
+  </si>
+  <si>
+    <t>상관없</t>
+  </si>
+  <si>
+    <t>상관업</t>
+  </si>
+  <si>
+    <t>상간없</t>
+  </si>
+  <si>
+    <t>세</t>
+  </si>
+  <si>
+    <t>새</t>
+  </si>
+  <si>
+    <t>쉽</t>
+  </si>
+  <si>
+    <t>십</t>
+  </si>
+  <si>
+    <t>싑</t>
+  </si>
+  <si>
+    <t>어렵</t>
+  </si>
+  <si>
+    <t>어럽</t>
+  </si>
+  <si>
+    <t>여렵</t>
+  </si>
+  <si>
+    <t>어리</t>
+  </si>
+  <si>
+    <t>어린</t>
+  </si>
+  <si>
+    <t>여리</t>
+  </si>
+  <si>
+    <t>어떻</t>
+  </si>
+  <si>
+    <t>어떡</t>
+  </si>
+  <si>
+    <t>없</t>
+  </si>
+  <si>
+    <t>업</t>
+  </si>
+  <si>
+    <t>이렇</t>
+  </si>
+  <si>
+    <t>이러</t>
+  </si>
+  <si>
+    <t>작</t>
+  </si>
+  <si>
+    <t>닥</t>
+  </si>
+  <si>
+    <t>재밌</t>
+  </si>
+  <si>
+    <t>재밋</t>
+  </si>
+  <si>
+    <t>제밋</t>
+  </si>
+  <si>
+    <t>제밌</t>
+  </si>
+  <si>
+    <t>좋</t>
+  </si>
+  <si>
+    <t>좃</t>
+  </si>
+  <si>
+    <t>크</t>
+  </si>
+  <si>
+    <t>큰</t>
+  </si>
+  <si>
+    <t>편하</t>
+  </si>
+  <si>
+    <t>같이</t>
+  </si>
+  <si>
+    <t>같치</t>
+  </si>
+  <si>
+    <t>갓치</t>
+  </si>
+  <si>
+    <t>거의</t>
+  </si>
+  <si>
+    <t>거이</t>
+  </si>
+  <si>
+    <t>다</t>
+  </si>
+  <si>
+    <t>따</t>
+  </si>
+  <si>
+    <t>타</t>
+  </si>
+  <si>
+    <t>더</t>
+  </si>
+  <si>
+    <t>떠</t>
+  </si>
+  <si>
+    <t>따로</t>
+  </si>
+  <si>
+    <t>따루</t>
+  </si>
+  <si>
+    <t>많이</t>
+  </si>
+  <si>
+    <t>만이</t>
+  </si>
+  <si>
+    <t>안</t>
+  </si>
+  <si>
+    <t>앙</t>
+  </si>
+  <si>
+    <t>얼마나</t>
+  </si>
+  <si>
+    <t>얼만아</t>
+  </si>
+  <si>
+    <t>오래</t>
+  </si>
+  <si>
+    <t>오레</t>
+  </si>
+  <si>
+    <t>잘</t>
+  </si>
+  <si>
+    <t>자알</t>
+  </si>
+  <si>
+    <t>좀</t>
+  </si>
+  <si>
+    <t>쫌</t>
+  </si>
+  <si>
+    <t>촘</t>
+  </si>
+  <si>
+    <t>지금</t>
+  </si>
+  <si>
+    <t>직금</t>
+  </si>
+  <si>
+    <t>작금</t>
+  </si>
+  <si>
+    <t>직접</t>
+  </si>
+  <si>
+    <t>직적</t>
+  </si>
+  <si>
+    <t>집접</t>
+  </si>
+  <si>
+    <t>집적</t>
+  </si>
+  <si>
+    <t>혹시</t>
+  </si>
+  <si>
+    <t>호옥시</t>
+  </si>
+  <si>
+    <t>근데</t>
+  </si>
+  <si>
+    <t>그렁대</t>
+  </si>
+  <si>
+    <t>그렁데</t>
+  </si>
+  <si>
+    <t>그론데</t>
+  </si>
+  <si>
+    <t>그론디</t>
+  </si>
+  <si>
+    <t>그런디</t>
+  </si>
+  <si>
+    <t>긍데</t>
+  </si>
+  <si>
+    <t>근디</t>
+  </si>
+  <si>
+    <t>긍디</t>
+  </si>
+  <si>
+    <t>그런데</t>
+  </si>
+  <si>
+    <t>그래도</t>
+  </si>
+  <si>
+    <t>그래두</t>
+  </si>
+  <si>
+    <t>구래도</t>
+  </si>
+  <si>
+    <t>구래두</t>
+  </si>
+  <si>
+    <t>고래도</t>
+  </si>
+  <si>
+    <t>고래두</t>
+  </si>
+  <si>
+    <t>그레두</t>
+  </si>
+  <si>
+    <t>그레도</t>
+  </si>
+  <si>
+    <t>구레두</t>
+  </si>
+  <si>
+    <t>구레도</t>
+  </si>
+  <si>
+    <t>고레도</t>
+  </si>
+  <si>
+    <t>고레두</t>
+  </si>
+  <si>
+    <t>그래서</t>
+  </si>
+  <si>
+    <t>구래서</t>
+  </si>
+  <si>
+    <t>그뤠서</t>
+  </si>
+  <si>
+    <t>구뤠서</t>
+  </si>
+  <si>
+    <t>따라숴</t>
+  </si>
+  <si>
+    <t>따롸서</t>
+  </si>
+  <si>
+    <t>그러니까</t>
+  </si>
+  <si>
+    <t>구로니까</t>
+  </si>
+  <si>
+    <t>구러니까</t>
+  </si>
+  <si>
+    <t>그로니까</t>
+  </si>
+  <si>
+    <t>그럼</t>
+  </si>
+  <si>
+    <t>글면</t>
+  </si>
+  <si>
+    <t>그롬</t>
+  </si>
+  <si>
+    <t>구롬</t>
+  </si>
+  <si>
+    <t>고럼</t>
+  </si>
+  <si>
+    <t>글묜</t>
+  </si>
+  <si>
+    <t>고러면</t>
+  </si>
+  <si>
+    <t>구러면</t>
+  </si>
+  <si>
+    <t>그로면</t>
+  </si>
+  <si>
+    <t>그르면</t>
+  </si>
+  <si>
+    <t>그르묜</t>
+  </si>
+  <si>
+    <t>그렇지만</t>
+  </si>
+  <si>
+    <t>그치만</t>
+  </si>
+  <si>
+    <t>구치만</t>
+  </si>
+  <si>
+    <t>그취만</t>
+  </si>
+  <si>
+    <t>그롷지만</t>
+  </si>
+  <si>
+    <t>그러치만</t>
+  </si>
+  <si>
+    <t>그럿치만</t>
+  </si>
+  <si>
+    <t>허지먼</t>
+  </si>
+  <si>
+    <t>하지먼</t>
+  </si>
+  <si>
+    <t>허지만</t>
+  </si>
+  <si>
+    <t>그리고</t>
+  </si>
+  <si>
+    <t>글구</t>
+  </si>
+  <si>
+    <t>구리구</t>
+  </si>
+  <si>
+    <t>구리고</t>
+  </si>
+  <si>
+    <t>그리구</t>
+  </si>
+  <si>
+    <t>또</t>
+  </si>
+  <si>
+    <t>또오</t>
+  </si>
+  <si>
+    <t>토</t>
+  </si>
+  <si>
+    <t>그</t>
+  </si>
+  <si>
+    <t>끄</t>
+  </si>
+  <si>
+    <t>네</t>
+  </si>
+  <si>
+    <t>넴</t>
+  </si>
+  <si>
+    <t>넹</t>
+  </si>
+  <si>
+    <t>넷</t>
+  </si>
+  <si>
+    <t>넵</t>
+  </si>
+  <si>
+    <t>두</t>
+  </si>
+  <si>
+    <t>몇</t>
+  </si>
+  <si>
+    <t>몃</t>
+  </si>
+  <si>
+    <t>어떤</t>
+  </si>
+  <si>
+    <t>어딴</t>
+  </si>
+  <si>
+    <t>어뜬</t>
+  </si>
+  <si>
+    <t>으떤</t>
+  </si>
+  <si>
+    <t>으뜬</t>
+  </si>
+  <si>
+    <t>요</t>
+  </si>
+  <si>
+    <t>욤</t>
+  </si>
+  <si>
+    <t>욘</t>
+  </si>
+  <si>
+    <t>욧</t>
+  </si>
+  <si>
+    <t>용</t>
+  </si>
+  <si>
+    <t>이</t>
+  </si>
+  <si>
+    <t>이론</t>
+  </si>
+  <si>
+    <t>이른</t>
+  </si>
+  <si>
+    <t>요런</t>
+  </si>
+  <si>
+    <t>저</t>
+  </si>
+  <si>
+    <t>젓</t>
+  </si>
+  <si>
+    <t>저어</t>
+  </si>
+  <si>
+    <t>한</t>
+  </si>
+  <si>
+    <t>함</t>
+  </si>
+  <si>
+    <t>고</t>
+  </si>
+  <si>
+    <t>구</t>
+  </si>
+  <si>
+    <t>게</t>
+  </si>
+  <si>
+    <t>게요</t>
+  </si>
+  <si>
+    <t>니다</t>
+  </si>
+  <si>
+    <t>습다</t>
+  </si>
+  <si>
+    <t>슴다</t>
+  </si>
+  <si>
+    <t>슷니다</t>
+  </si>
+  <si>
+    <t>숩니다</t>
+  </si>
+  <si>
+    <t>스비다</t>
+  </si>
+  <si>
+    <t>습닛다</t>
+  </si>
+  <si>
+    <t>니당</t>
+  </si>
+  <si>
+    <t>닌다</t>
+  </si>
+  <si>
+    <t>니단</t>
+  </si>
+  <si>
+    <t>니담</t>
+  </si>
+  <si>
+    <t>님당</t>
+  </si>
+  <si>
+    <t>닛당</t>
+  </si>
+  <si>
+    <t>님다</t>
+  </si>
+  <si>
+    <t>닛다</t>
+  </si>
+  <si>
+    <t>니닷</t>
+  </si>
+  <si>
+    <t>습니다</t>
+  </si>
+  <si>
+    <t>면</t>
+  </si>
+  <si>
+    <t>명</t>
+  </si>
+  <si>
+    <t>아요</t>
+  </si>
+  <si>
+    <t>야요</t>
+  </si>
+  <si>
+    <t>아오</t>
+  </si>
+  <si>
+    <t>야오</t>
+  </si>
+  <si>
+    <t>아욘</t>
+  </si>
+  <si>
+    <t>야욘</t>
+  </si>
+  <si>
+    <t>아용</t>
+  </si>
+  <si>
+    <t>어</t>
+  </si>
+  <si>
+    <t>엇</t>
+  </si>
+  <si>
+    <t>어요</t>
+  </si>
+  <si>
+    <t>엇요</t>
+  </si>
+  <si>
+    <t>어용</t>
+  </si>
+  <si>
+    <t>어욘</t>
+  </si>
+  <si>
+    <t>에요</t>
+  </si>
+  <si>
+    <t>예요</t>
+  </si>
+  <si>
+    <t>와</t>
+  </si>
+  <si>
+    <t>야랑</t>
+  </si>
+  <si>
+    <t>이랑</t>
+  </si>
+  <si>
+    <t>이나</t>
+  </si>
+  <si>
+    <t>나</t>
+  </si>
+  <si>
+    <t>과</t>
+  </si>
+  <si>
+    <t>활인</t>
+  </si>
+  <si>
+    <t>할인</t>
+  </si>
+  <si>
+    <t>캬드</t>
+  </si>
+  <si>
+    <t>커드</t>
+  </si>
+  <si>
+    <t>카드</t>
+  </si>
+  <si>
+    <t>츄가</t>
+  </si>
+  <si>
+    <t>츠가</t>
+  </si>
+  <si>
+    <t>추가</t>
+  </si>
+  <si>
+    <t>주뭄</t>
+  </si>
+  <si>
+    <t>주뭉</t>
+  </si>
+  <si>
+    <t>주문</t>
+  </si>
+  <si>
+    <t>정두</t>
+  </si>
+  <si>
+    <t>정도</t>
+  </si>
+  <si>
+    <t>예악</t>
+  </si>
+  <si>
+    <t>에악</t>
+  </si>
+  <si>
+    <t>에약</t>
+  </si>
+  <si>
+    <t>예약</t>
+  </si>
+  <si>
+    <t>얼마</t>
+  </si>
+  <si>
+    <t>셋뜨</t>
+  </si>
+  <si>
+    <t>셋트</t>
+  </si>
+  <si>
+    <t>세뜨</t>
+  </si>
+  <si>
+    <t>세트</t>
+  </si>
+  <si>
+    <t>배다</t>
+  </si>
+  <si>
+    <t>베달</t>
+  </si>
+  <si>
+    <t>배달</t>
+  </si>
+  <si>
+    <t>마뉴</t>
+  </si>
+  <si>
+    <t>메뉴</t>
+  </si>
+  <si>
+    <t>결재</t>
+  </si>
+  <si>
+    <t>결제</t>
+  </si>
+  <si>
+    <t>가녕</t>
+  </si>
+  <si>
+    <t>카녕</t>
+  </si>
+  <si>
+    <t>카넝</t>
+  </si>
+  <si>
+    <t>카능</t>
+  </si>
+  <si>
+    <t>가능</t>
+  </si>
+  <si>
+    <t>가격</t>
+  </si>
+  <si>
+    <t>으씨</t>
+  </si>
+  <si>
+    <t>으시</t>
+  </si>
+  <si>
+    <t>잇엇</t>
+  </si>
+  <si>
+    <t>있었</t>
+  </si>
+  <si>
+    <t>있엇</t>
+  </si>
+  <si>
+    <t>었</t>
+  </si>
+  <si>
+    <t>앗</t>
+  </si>
+  <si>
+    <t>았</t>
+  </si>
+  <si>
+    <t>시</t>
+  </si>
+  <si>
+    <t>겟</t>
+  </si>
+  <si>
+    <t>겠</t>
+  </si>
+  <si>
+    <t>탈</t>
+  </si>
+  <si>
+    <t>초</t>
+  </si>
+  <si>
+    <t>쩨</t>
+  </si>
+  <si>
+    <t>제</t>
+  </si>
+  <si>
+    <t>소</t>
+  </si>
+  <si>
+    <t>생</t>
+  </si>
+  <si>
+    <t>삐</t>
+  </si>
+  <si>
+    <t>비</t>
+  </si>
+  <si>
+    <t>불</t>
+  </si>
+  <si>
+    <t>반</t>
+  </si>
+  <si>
+    <t>무</t>
+  </si>
+  <si>
+    <t>대</t>
+  </si>
+  <si>
+    <t>코</t>
+  </si>
+  <si>
+    <t>히</t>
+  </si>
+  <si>
+    <t>차</t>
+  </si>
+  <si>
+    <t>찾</t>
+  </si>
+  <si>
+    <t>잎</t>
+  </si>
+  <si>
+    <t>입</t>
+  </si>
+  <si>
+    <t>잇</t>
+  </si>
+  <si>
+    <t>있</t>
+  </si>
+  <si>
+    <t>씬</t>
+  </si>
+  <si>
+    <t>신</t>
+  </si>
+  <si>
+    <t>보이</t>
+  </si>
+  <si>
+    <t>먹</t>
+  </si>
+  <si>
+    <t>드러가</t>
+  </si>
+  <si>
+    <t>들어가</t>
+  </si>
+  <si>
+    <t>들</t>
+  </si>
+  <si>
+    <t>드리</t>
+  </si>
+  <si>
+    <t>돼</t>
+  </si>
+  <si>
+    <t>되</t>
+  </si>
+  <si>
+    <t>나오</t>
+  </si>
+  <si>
+    <t>나가</t>
+  </si>
+  <si>
+    <t>걸리</t>
+  </si>
+  <si>
+    <t>비싸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>똑같</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예쁘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에쁘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애쁘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두껍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둣겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부드럽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가깝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젠부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪼금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>및</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하긴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허긴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어느</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저런</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>려고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>려면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는데요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뀰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끓이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끌이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>낫</t>
-  </si>
-  <si>
-    <t>낮</t>
-  </si>
-  <si>
-    <t>늦</t>
-  </si>
-  <si>
-    <t>늣</t>
-  </si>
-  <si>
-    <t>늧</t>
-  </si>
-  <si>
-    <t>늗</t>
-  </si>
-  <si>
-    <t>다르</t>
-  </si>
-  <si>
-    <t>다른</t>
-  </si>
-  <si>
-    <t>맛있</t>
-  </si>
-  <si>
-    <t>맛잇</t>
-  </si>
-  <si>
-    <t>맜있</t>
-  </si>
-  <si>
-    <t>맜잇</t>
-  </si>
-  <si>
-    <t>마싯</t>
-  </si>
-  <si>
-    <t>마싰</t>
-  </si>
-  <si>
-    <t>많</t>
-  </si>
-  <si>
-    <t>만</t>
-  </si>
-  <si>
-    <t>맣</t>
-  </si>
-  <si>
-    <t>상관없</t>
-  </si>
-  <si>
-    <t>상관업</t>
-  </si>
-  <si>
-    <t>상간없</t>
-  </si>
-  <si>
-    <t>세</t>
-  </si>
-  <si>
-    <t>새</t>
-  </si>
-  <si>
-    <t>쉽</t>
-  </si>
-  <si>
-    <t>십</t>
-  </si>
-  <si>
-    <t>싑</t>
-  </si>
-  <si>
-    <t>어렵</t>
-  </si>
-  <si>
-    <t>어럽</t>
-  </si>
-  <si>
-    <t>여렵</t>
-  </si>
-  <si>
-    <t>어리</t>
-  </si>
-  <si>
-    <t>어린</t>
-  </si>
-  <si>
-    <t>여리</t>
-  </si>
-  <si>
-    <t>어떻</t>
-  </si>
-  <si>
-    <t>어떡</t>
-  </si>
-  <si>
-    <t>없</t>
-  </si>
-  <si>
-    <t>업</t>
-  </si>
-  <si>
-    <t>이렇</t>
-  </si>
-  <si>
-    <t>이러</t>
-  </si>
-  <si>
-    <t>작</t>
-  </si>
-  <si>
-    <t>닥</t>
-  </si>
-  <si>
-    <t>재밌</t>
-  </si>
-  <si>
-    <t>재밋</t>
-  </si>
-  <si>
-    <t>제밋</t>
-  </si>
-  <si>
-    <t>제밌</t>
-  </si>
-  <si>
-    <t>좋</t>
-  </si>
-  <si>
-    <t>좃</t>
-  </si>
-  <si>
-    <t>크</t>
-  </si>
-  <si>
-    <t>큰</t>
-  </si>
-  <si>
-    <t>편하</t>
-  </si>
-  <si>
-    <t>같이</t>
-  </si>
-  <si>
-    <t>같치</t>
-  </si>
-  <si>
-    <t>갓치</t>
-  </si>
-  <si>
-    <t>거의</t>
-  </si>
-  <si>
-    <t>거이</t>
-  </si>
-  <si>
-    <t>다</t>
-  </si>
-  <si>
-    <t>따</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그로나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜냐하면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜냐면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜냐허면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외냐하면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>춍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>져런</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즈른</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즈런</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>타</t>
-  </si>
-  <si>
-    <t>더</t>
-  </si>
-  <si>
-    <t>떠</t>
-  </si>
-  <si>
-    <t>따로</t>
-  </si>
-  <si>
-    <t>따루</t>
-  </si>
-  <si>
-    <t>많이</t>
-  </si>
-  <si>
-    <t>만이</t>
-  </si>
-  <si>
-    <t>안</t>
-  </si>
-  <si>
-    <t>앙</t>
-  </si>
-  <si>
-    <t>얼마나</t>
-  </si>
-  <si>
-    <t>얼만아</t>
-  </si>
-  <si>
-    <t>오래</t>
-  </si>
-  <si>
-    <t>오레</t>
-  </si>
-  <si>
-    <t>잘</t>
-  </si>
-  <si>
-    <t>자알</t>
-  </si>
-  <si>
-    <t>좀</t>
-  </si>
-  <si>
-    <t>쫌</t>
-  </si>
-  <si>
-    <t>촘</t>
-  </si>
-  <si>
-    <t>지금</t>
-  </si>
-  <si>
-    <t>직금</t>
-  </si>
-  <si>
-    <t>작금</t>
-  </si>
-  <si>
-    <t>직접</t>
-  </si>
-  <si>
-    <t>직적</t>
-  </si>
-  <si>
-    <t>집접</t>
-  </si>
-  <si>
-    <t>집적</t>
-  </si>
-  <si>
-    <t>혹시</t>
-  </si>
-  <si>
-    <t>호옥시</t>
-  </si>
-  <si>
-    <t>근데</t>
-  </si>
-  <si>
-    <t>그렁대</t>
-  </si>
-  <si>
-    <t>그렁데</t>
-  </si>
-  <si>
-    <t>그론데</t>
-  </si>
-  <si>
-    <t>그론디</t>
-  </si>
-  <si>
-    <t>그런디</t>
-  </si>
-  <si>
-    <t>긍데</t>
-  </si>
-  <si>
-    <t>근디</t>
-  </si>
-  <si>
-    <t>긍디</t>
-  </si>
-  <si>
-    <t>그런데</t>
-  </si>
-  <si>
-    <t>그래도</t>
-  </si>
-  <si>
-    <t>그래두</t>
-  </si>
-  <si>
-    <t>구래도</t>
-  </si>
-  <si>
-    <t>구래두</t>
-  </si>
-  <si>
-    <t>고래도</t>
-  </si>
-  <si>
-    <t>고래두</t>
-  </si>
-  <si>
-    <t>그레두</t>
-  </si>
-  <si>
-    <t>그레도</t>
-  </si>
-  <si>
-    <t>구레두</t>
-  </si>
-  <si>
-    <t>구레도</t>
-  </si>
-  <si>
-    <t>고레도</t>
-  </si>
-  <si>
-    <t>고레두</t>
-  </si>
-  <si>
-    <t>그래서</t>
-  </si>
-  <si>
-    <t>구래서</t>
-  </si>
-  <si>
-    <t>그뤠서</t>
-  </si>
-  <si>
-    <t>구뤠서</t>
-  </si>
-  <si>
-    <t>따라숴</t>
-  </si>
-  <si>
-    <t>따롸서</t>
-  </si>
-  <si>
-    <t>그러니까</t>
-  </si>
-  <si>
-    <t>구로니까</t>
-  </si>
-  <si>
-    <t>구러니까</t>
-  </si>
-  <si>
-    <t>그로니까</t>
-  </si>
-  <si>
-    <t>그럼</t>
-  </si>
-  <si>
-    <t>글면</t>
-  </si>
-  <si>
-    <t>그롬</t>
-  </si>
-  <si>
-    <t>구롬</t>
-  </si>
-  <si>
-    <t>고럼</t>
-  </si>
-  <si>
-    <t>글묜</t>
-  </si>
-  <si>
-    <t>고러면</t>
-  </si>
-  <si>
-    <t>구러면</t>
-  </si>
-  <si>
-    <t>그로면</t>
-  </si>
-  <si>
-    <t>그르면</t>
-  </si>
-  <si>
-    <t>그르묜</t>
-  </si>
-  <si>
-    <t>그렇지만</t>
-  </si>
-  <si>
-    <t>그치만</t>
-  </si>
-  <si>
-    <t>구치만</t>
-  </si>
-  <si>
-    <t>그취만</t>
-  </si>
-  <si>
-    <t>그롷지만</t>
-  </si>
-  <si>
-    <t>그러치만</t>
-  </si>
-  <si>
-    <t>그럿치만</t>
-  </si>
-  <si>
-    <t>허지먼</t>
-  </si>
-  <si>
-    <t>하지먼</t>
-  </si>
-  <si>
-    <t>허지만</t>
-  </si>
-  <si>
-    <t>그리고</t>
-  </si>
-  <si>
-    <t>글구</t>
-  </si>
-  <si>
-    <t>구리구</t>
-  </si>
-  <si>
-    <t>구리고</t>
-  </si>
-  <si>
-    <t>그리구</t>
-  </si>
-  <si>
-    <t>또</t>
-  </si>
-  <si>
-    <t>또오</t>
-  </si>
-  <si>
-    <t>토</t>
-  </si>
-  <si>
-    <t>그</t>
-  </si>
-  <si>
-    <t>끄</t>
-  </si>
-  <si>
-    <t>네</t>
-  </si>
-  <si>
-    <t>넴</t>
-  </si>
-  <si>
-    <t>넹</t>
-  </si>
-  <si>
-    <t>넷</t>
-  </si>
-  <si>
-    <t>넵</t>
-  </si>
-  <si>
-    <t>두</t>
-  </si>
-  <si>
-    <t>몇</t>
-  </si>
-  <si>
-    <t>몃</t>
-  </si>
-  <si>
-    <t>어떤</t>
-  </si>
-  <si>
-    <t>어딴</t>
-  </si>
-  <si>
-    <t>어뜬</t>
-  </si>
-  <si>
-    <t>으떤</t>
-  </si>
-  <si>
-    <t>으뜬</t>
-  </si>
-  <si>
-    <t>요</t>
-  </si>
-  <si>
-    <t>욤</t>
-  </si>
-  <si>
-    <t>욘</t>
-  </si>
-  <si>
-    <t>욧</t>
-  </si>
-  <si>
-    <t>용</t>
-  </si>
-  <si>
-    <t>이</t>
-  </si>
-  <si>
-    <t>이론</t>
-  </si>
-  <si>
-    <t>이른</t>
-  </si>
-  <si>
-    <t>요런</t>
-  </si>
-  <si>
-    <t>저</t>
-  </si>
-  <si>
-    <t>젓</t>
-  </si>
-  <si>
-    <t>저어</t>
-  </si>
-  <si>
-    <t>한</t>
-  </si>
-  <si>
-    <t>함</t>
-  </si>
-  <si>
-    <t>고</t>
-  </si>
-  <si>
-    <t>구</t>
-  </si>
-  <si>
-    <t>게</t>
-  </si>
-  <si>
-    <t>게요</t>
-  </si>
-  <si>
-    <t>니다</t>
-  </si>
-  <si>
-    <t>습다</t>
-  </si>
-  <si>
-    <t>슴다</t>
-  </si>
-  <si>
-    <t>슷니다</t>
-  </si>
-  <si>
-    <t>숩니다</t>
-  </si>
-  <si>
-    <t>스비다</t>
-  </si>
-  <si>
-    <t>습닛다</t>
-  </si>
-  <si>
-    <t>니당</t>
-  </si>
-  <si>
-    <t>닌다</t>
-  </si>
-  <si>
-    <t>니단</t>
-  </si>
-  <si>
-    <t>니담</t>
-  </si>
-  <si>
-    <t>님당</t>
-  </si>
-  <si>
-    <t>닛당</t>
-  </si>
-  <si>
-    <t>님다</t>
-  </si>
-  <si>
-    <t>닛다</t>
-  </si>
-  <si>
-    <t>니닷</t>
-  </si>
-  <si>
-    <t>습니다</t>
-  </si>
-  <si>
-    <t>면</t>
-  </si>
-  <si>
-    <t>명</t>
-  </si>
-  <si>
-    <t>아요</t>
-  </si>
-  <si>
-    <t>야요</t>
-  </si>
-  <si>
-    <t>아오</t>
-  </si>
-  <si>
-    <t>야오</t>
-  </si>
-  <si>
-    <t>아욘</t>
-  </si>
-  <si>
-    <t>야욘</t>
-  </si>
-  <si>
-    <t>아용</t>
-  </si>
-  <si>
-    <t>어</t>
-  </si>
-  <si>
-    <t>엇</t>
-  </si>
-  <si>
-    <t>어요</t>
-  </si>
-  <si>
-    <t>엇요</t>
-  </si>
-  <si>
-    <t>어용</t>
-  </si>
-  <si>
-    <t>어욘</t>
-  </si>
-  <si>
-    <t>에요</t>
-  </si>
-  <si>
-    <t>예요</t>
-  </si>
-  <si>
-    <t>와</t>
-  </si>
-  <si>
-    <t>야랑</t>
-  </si>
-  <si>
-    <t>이랑</t>
-  </si>
-  <si>
-    <t>이나</t>
-  </si>
-  <si>
-    <t>나</t>
-  </si>
-  <si>
-    <t>과</t>
-  </si>
-  <si>
-    <t>활인</t>
-  </si>
-  <si>
-    <t>할인</t>
-  </si>
-  <si>
-    <t>캬드</t>
-  </si>
-  <si>
-    <t>커드</t>
-  </si>
-  <si>
-    <t>카드</t>
-  </si>
-  <si>
-    <t>츄가</t>
-  </si>
-  <si>
-    <t>츠가</t>
-  </si>
-  <si>
-    <t>추가</t>
-  </si>
-  <si>
-    <t>주뭄</t>
-  </si>
-  <si>
-    <t>주뭉</t>
-  </si>
-  <si>
-    <t>주문</t>
-  </si>
-  <si>
-    <t>정두</t>
-  </si>
-  <si>
-    <t>정도</t>
-  </si>
-  <si>
-    <t>예악</t>
-  </si>
-  <si>
-    <t>에악</t>
-  </si>
-  <si>
-    <t>에약</t>
-  </si>
-  <si>
-    <t>예약</t>
-  </si>
-  <si>
-    <t>얼마</t>
-  </si>
-  <si>
-    <t>셋뜨</t>
-  </si>
-  <si>
-    <t>셋트</t>
-  </si>
-  <si>
-    <t>세뜨</t>
-  </si>
-  <si>
-    <t>세트</t>
-  </si>
-  <si>
-    <t>배다</t>
-  </si>
-  <si>
-    <t>베달</t>
-  </si>
-  <si>
-    <t>배달</t>
-  </si>
-  <si>
-    <t>마뉴</t>
-  </si>
-  <si>
-    <t>메뉴</t>
-  </si>
-  <si>
-    <t>결재</t>
-  </si>
-  <si>
-    <t>결제</t>
-  </si>
-  <si>
-    <t>가녕</t>
-  </si>
-  <si>
-    <t>카녕</t>
-  </si>
-  <si>
-    <t>카넝</t>
-  </si>
-  <si>
-    <t>카능</t>
-  </si>
-  <si>
-    <t>가능</t>
-  </si>
-  <si>
-    <t>가격</t>
-  </si>
-  <si>
-    <t>으씨</t>
-  </si>
-  <si>
-    <t>으시</t>
-  </si>
-  <si>
-    <t>잇엇</t>
-  </si>
-  <si>
-    <t>있었</t>
-  </si>
-  <si>
-    <t>있엇</t>
-  </si>
-  <si>
-    <t>었</t>
-  </si>
-  <si>
-    <t>앗</t>
-  </si>
-  <si>
-    <t>았</t>
-  </si>
-  <si>
-    <t>시</t>
-  </si>
-  <si>
-    <t>겟</t>
-  </si>
-  <si>
-    <t>겠</t>
-  </si>
-  <si>
-    <t>탈</t>
-  </si>
-  <si>
-    <t>초</t>
-  </si>
-  <si>
-    <t>쩨</t>
-  </si>
-  <si>
-    <t>제</t>
-  </si>
-  <si>
-    <t>소</t>
-  </si>
-  <si>
-    <t>생</t>
-  </si>
-  <si>
-    <t>삐</t>
-  </si>
-  <si>
-    <t>비</t>
-  </si>
-  <si>
-    <t>불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>므순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>므슨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던뎅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던뎁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>려구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능데요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는뎀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는데욤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는데욥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는데욘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는데연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는데엽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는데염</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는대요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는뎃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세탁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영양제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>반</t>
-  </si>
-  <si>
-    <t>무</t>
-  </si>
-  <si>
-    <t>대</t>
-  </si>
-  <si>
-    <t>코</t>
-  </si>
-  <si>
-    <t>히</t>
-  </si>
-  <si>
-    <t>차</t>
-  </si>
-  <si>
-    <t>찾</t>
-  </si>
-  <si>
-    <t>잎</t>
-  </si>
-  <si>
-    <t>입</t>
-  </si>
-  <si>
-    <t>잇</t>
-  </si>
-  <si>
-    <t>있</t>
-  </si>
-  <si>
-    <t>씬</t>
-  </si>
-  <si>
-    <t>신</t>
-  </si>
-  <si>
-    <t>보이</t>
-  </si>
-  <si>
-    <t>먹</t>
-  </si>
-  <si>
-    <t>드러가</t>
-  </si>
-  <si>
-    <t>들어가</t>
-  </si>
-  <si>
-    <t>들</t>
-  </si>
-  <si>
-    <t>드리</t>
-  </si>
-  <si>
-    <t>돼</t>
-  </si>
-  <si>
-    <t>되</t>
-  </si>
-  <si>
-    <t>나오</t>
-  </si>
-  <si>
-    <t>나가</t>
-  </si>
-  <si>
-    <t>걸리</t>
-  </si>
-  <si>
-    <t>비싸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바르</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>똑같</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>싸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예쁘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에쁘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애쁘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두껍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두겁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>둣겁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>높</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>놉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부드럽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가깝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>젊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그냥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모두</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>못</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>젠부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쪼금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>및</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하긴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허긴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어느</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무슨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그런</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>온</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저런</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>는데</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은데</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>려고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>죠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>려면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>는데요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>떡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소고기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적립</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>향</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요즘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뀰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>걸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바르</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>받</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자르</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>끓이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>굽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>끌이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>짧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힘들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빠르</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>따갑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>함께</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>따라서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>따라소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>또는</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>또은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그로나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜냐하면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>긴데</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜냐면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜냐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜냐허면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외냐하면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>춍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쥬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>젼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>져런</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즈른</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즈런</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>므순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>므슨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>겤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>겍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>던데</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>던뎅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>던뎁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>려구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>능데</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>능데요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>는뎀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>는데욤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>는데욥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>는데욘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>는데연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>는데엽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>는데염</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>는대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>는대요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>는뎃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찌만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세탁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영양제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클리닉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1854,6 +1851,58 @@
   </si>
   <si>
     <t>기다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜨겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바쁘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너므</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구냥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함깨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2182,10 +2231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2227,7 +2276,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2237,7 +2286,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2304,7 +2353,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2314,7 +2363,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2339,7 +2388,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>452</v>
+        <v>330</v>
+      </c>
+      <c r="B10" t="s">
+        <v>331</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -2351,9 +2403,15 @@
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2364,11 +2422,15 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B12" t="s">
-        <v>332</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2377,19 +2439,14 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+        <v>326</v>
+      </c>
+      <c r="B13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C13" t="s">
+        <v>328</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2398,15 +2455,8 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+        <v>333</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2415,13 +2465,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B15" t="s">
-        <v>328</v>
-      </c>
-      <c r="C15" t="s">
-        <v>329</v>
+        <v>452</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -2431,7 +2475,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2441,9 +2485,8 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>534</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2451,27 +2494,38 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>320</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2480,22 +2534,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>33</v>
+        <v>335</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2505,7 +2544,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2515,7 +2554,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>317</v>
+        <v>537</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2525,7 +2564,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -2535,23 +2574,27 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>315</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2559,10 +2602,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2571,18 +2614,18 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2590,35 +2633,35 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2627,13 +2670,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2641,13 +2684,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2655,10 +2698,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2667,39 +2710,32 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B39" t="s">
-        <v>323</v>
-      </c>
-      <c r="C39" t="s">
-        <v>324</v>
-      </c>
-      <c r="D39" t="s">
-        <v>325</v>
-      </c>
-      <c r="E39" t="s">
-        <v>326</v>
+        <v>536</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+        <v>321</v>
+      </c>
+      <c r="B40" t="s">
+        <v>322</v>
+      </c>
+      <c r="C40" t="s">
+        <v>323</v>
+      </c>
+      <c r="D40" t="s">
+        <v>324</v>
+      </c>
+      <c r="E40" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2708,80 +2744,102 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B43" t="s">
-        <v>319</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>337</v>
+        <v>317</v>
+      </c>
+      <c r="B44" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+        <v>336</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>447</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+        <v>535</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>449</v>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F49">
-    <sortCondition ref="A49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K53">
+    <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2793,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA6DBBD-9BD7-4914-BE9F-D1B289285B1B}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2837,13 +2895,9 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+        <v>415</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2852,13 +2906,8 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+        <v>527</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2867,13 +2916,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2882,15 +2928,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+        <v>313</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2899,12 +2940,9 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+        <v>440</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2913,15 +2951,8 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+        <v>532</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2930,15 +2961,12 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+        <v>439</v>
+      </c>
+      <c r="B8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2947,12 +2975,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2961,12 +2987,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+        <v>311</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2975,12 +2999,12 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+        <v>428</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2989,15 +3013,9 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+        <v>435</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3006,12 +3024,12 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+        <v>310</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3020,16 +3038,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>302</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3038,12 +3050,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+        <v>307</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3052,12 +3062,12 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+        <v>306</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3066,12 +3076,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+        <v>424</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3082,12 +3090,7 @@
       <c r="A18" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3096,14 +3099,8 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+        <v>531</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -3112,8 +3109,9 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>432</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -3127,7 +3125,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3142,7 +3140,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3157,9 +3155,8 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B23" s="1"/>
+        <v>431</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3172,131 +3169,192 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>532</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>431</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+        <v>530</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C27" s="1"/>
+        <v>526</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+        <v>528</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B29" s="1"/>
+        <v>302</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>433</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>425</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B35" t="s">
-        <v>442</v>
-      </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>427</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>294</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C41">
-    <sortCondition descending="1" ref="A41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G41">
+    <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3306,10 +3364,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FD0948-D3D8-4BBE-879D-CAE0780A4239}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3352,13 +3410,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3372,10 +3430,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3390,9 +3448,11 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>340</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3406,7 +3466,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -3418,7 +3478,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3431,13 +3494,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3451,7 +3514,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3463,28 +3526,18 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+        <v>538</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3499,10 +3552,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3517,8 +3570,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>345</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -3530,13 +3588,8 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+        <v>539</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -3556,7 +3609,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3569,7 +3622,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -3582,7 +3635,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -3595,7 +3648,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3608,148 +3661,186 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+        <v>341</v>
+      </c>
       <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+        <v>540</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+        <v>541</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>456</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>350</v>
+        <v>542</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>454</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>348</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>347</v>
+        <v>85</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>353</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+        <v>349</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>453</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>99</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>458</v>
+        <v>346</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>339</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>353</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E34">
-    <sortCondition ref="A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I40">
+    <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3761,7 +3852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996A81F9-74BF-4B05-A0D8-B277F6A7E908}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -3806,61 +3897,61 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -3872,21 +3963,21 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3900,99 +3991,99 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="K7" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -4005,34 +4096,34 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -4040,32 +4131,32 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="D12" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -4078,7 +4169,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4095,27 +4186,27 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C14" t="s">
         <v>469</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>470</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>471</v>
-      </c>
-      <c r="E14" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -4131,7 +4222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4E66B4-BA53-4480-BE87-5A3F576CEDED}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -4174,7 +4265,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -4185,10 +4276,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4202,7 +4293,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -4213,7 +4304,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -4224,7 +4315,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -4235,19 +4326,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -4258,7 +4349,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4273,7 +4364,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4284,7 +4375,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4299,7 +4390,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -4310,10 +4401,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4327,7 +4418,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -4338,31 +4429,31 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B15" t="s">
+        <v>484</v>
+      </c>
+      <c r="C15" t="s">
         <v>485</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>486</v>
-      </c>
-      <c r="D15" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4371,76 +4462,76 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4449,86 +4540,86 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B32" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -4547,7 +4638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E1EAAA-5BE9-41B7-B725-AED572335A1D}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -4598,13 +4689,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -4625,7 +4716,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4648,10 +4739,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4673,51 +4764,51 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -4727,108 +4818,108 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C9" t="s">
         <v>497</v>
-      </c>
-      <c r="C9" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4850,7 +4941,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4873,12 +4964,12 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4901,7 +4992,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -4921,28 +5012,28 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -4958,10 +5049,10 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -4983,7 +5074,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -5003,7 +5094,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5011,21 +5102,21 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -5045,10 +5136,10 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -5070,7 +5161,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -5093,7 +5184,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -5113,17 +5204,17 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B28" s="1"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -5143,7 +5234,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5151,10 +5242,10 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -5170,7 +5261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18003A83-7B44-48E1-B4B2-35C72013711A}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5213,7 +5304,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5228,7 +5319,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5243,7 +5334,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5258,13 +5349,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -5277,7 +5368,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -5339,7 +5430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F81392-19F2-4795-AC98-BDEA868F270B}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -5383,7 +5474,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5399,19 +5490,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -5423,7 +5514,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5439,10 +5530,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -5457,10 +5548,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5475,7 +5566,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5491,7 +5582,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -5502,10 +5593,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -5520,7 +5611,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -5531,13 +5622,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -5551,7 +5642,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5567,7 +5658,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -5578,7 +5669,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -5589,16 +5680,16 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -5611,7 +5702,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -5622,7 +5713,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -5633,7 +5724,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5649,7 +5740,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5665,16 +5756,16 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -5687,7 +5778,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -5698,7 +5789,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -5709,10 +5800,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -5727,12 +5818,12 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5742,7 +5833,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -5752,13 +5843,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -5766,13 +5857,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -5780,18 +5871,18 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -5799,7 +5890,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5809,16 +5900,16 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5827,15 +5918,15 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5844,55 +5935,55 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B38" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -5911,7 +6002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D29EEE-D4C5-40DE-86DA-2E7E477D6A17}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -5962,10 +6053,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5987,10 +6078,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -6012,7 +6103,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6035,10 +6126,10 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -6060,7 +6151,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6083,10 +6174,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -6108,22 +6199,22 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -6392,7 +6483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E957D318-BA07-4A86-81AF-A700FE17CEB1}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -6436,7 +6527,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6451,10 +6542,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -6469,7 +6560,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -6484,7 +6575,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6500,7 +6591,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6516,7 +6607,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -6531,7 +6622,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -6546,7 +6637,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6562,10 +6653,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -6580,7 +6671,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -6595,7 +6686,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -6610,7 +6701,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -6625,7 +6716,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -6640,7 +6731,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -6655,10 +6746,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -6673,25 +6764,25 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B20" s="1"/>
     </row>
